--- a/Assets/DataBase/Excel/ItemDatabase.xlsx
+++ b/Assets/DataBase/Excel/ItemDatabase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leesangmin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\RogueDodge\RogueDodge\Assets\DataBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36447AFF-E468-4D7E-A665-14D0C571998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4DCAE7-4820-4FA5-93FC-3AE65010056B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{CA4775AA-6FA9-4713-A1A2-42B70445186B}"/>
+    <workbookView xWindow="5850" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{CA4775AA-6FA9-4713-A1A2-42B70445186B}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleItem" sheetId="1" r:id="rId1"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sppedValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VALUETYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,7 +185,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">index </t>
+    <t>speedValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE88393-CDF3-47BE-B43C-085FEC691AAC}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -811,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -837,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -863,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -889,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -912,9 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90C68F1-A281-493D-BE45-7837B5988687}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -946,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -969,7 +969,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1001,7 +1001,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -1022,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1054,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1062,10 +1062,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">

--- a/Assets/DataBase/Excel/ItemDatabase.xlsx
+++ b/Assets/DataBase/Excel/ItemDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\RogueDodge\RogueDodge\Assets\DataBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4DCAE7-4820-4FA5-93FC-3AE65010056B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38E468A-4B3F-4A67-A703-451DAFFE8FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{CA4775AA-6FA9-4713-A1A2-42B70445186B}"/>
+    <workbookView xWindow="3885" yWindow="2325" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{CA4775AA-6FA9-4713-A1A2-42B70445186B}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleItem" sheetId="1" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE88393-CDF3-47BE-B43C-085FEC691AAC}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -914,7 +914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90C68F1-A281-493D-BE45-7837B5988687}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1039,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>

--- a/Assets/DataBase/Excel/ItemDatabase.xlsx
+++ b/Assets/DataBase/Excel/ItemDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\RogueDodge\RogueDodge\Assets\DataBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38E468A-4B3F-4A67-A703-451DAFFE8FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E538EC-D1E4-4EFD-9CE2-E8C6058C3561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2325" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{CA4775AA-6FA9-4713-A1A2-42B70445186B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CA4775AA-6FA9-4713-A1A2-42B70445186B}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleItem" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCARCITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atkCoolTimeValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낡지팡이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소형 포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,9 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WEAPONTYPE</t>
-  </si>
-  <si>
     <t>SWORD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,9 +127,6 @@
     <t>STAFF</t>
   </si>
   <si>
-    <t>USETYPE</t>
-  </si>
-  <si>
     <t>POTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VALUETYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +172,246 @@
   </si>
   <si>
     <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 사용하기 좋은 나무로된 검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약탈자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약탈자들이 사용하는 검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑스칼리버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아서왕이 사용했던 전설의 성검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주받은 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 기운을 내뿜는 저주받은 검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샐러맨더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 정령의 힘이 담겨있는 검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중세시대 기사들이 자주 사용하던 검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eScarcity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eWeaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eScarcity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eValueType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eUseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 지팡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 맞다 TIL!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 된 평범한 반지이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은으로 된 평범한 반지이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비싸보이는 금으로 된 반지이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크X하츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불광이 잘 나있는 육면 전투화이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육면 전투화의 사막 에디션이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고싶은 디자인의 반지이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단의 장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단이 사용하는 장갑이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단의 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단이 신는 신발이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무런 효과가 없는 빈병이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉인된 고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금지된 기술로 인해 봉인된 고서이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로된 방패이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓸만한 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓸만해보이는  방패이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성기사의 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신앙심이 높아지는 방패이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린 보우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲속의 요정들이 사용하는 활이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈팅스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주의 힘을 담은 전설의 활이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차가운 기운을 내뿜는 지팡이이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀리 스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성스러운 기운을 내뿜는 지팡이이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요정의 지팡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲속 요정들이 사용하는 지팡이이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,15 +779,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE88393-CDF3-47BE-B43C-085FEC691AAC}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="75.625" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
@@ -574,7 +796,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -586,16 +808,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -606,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -618,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -629,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>15</v>
@@ -644,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -655,10 +877,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -670,101 +892,297 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -776,7 +1194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C06B86-2644-47B4-AA6F-4DCC9714E6E9}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -792,7 +1212,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -801,19 +1221,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -821,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>30</v>
@@ -833,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -847,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>50</v>
@@ -859,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -873,10 +1293,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
@@ -885,24 +1305,40 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -912,16 +1348,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90C68F1-A281-493D-BE45-7837B5988687}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
@@ -933,7 +1369,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -945,10 +1381,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -957,10 +1393,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -968,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -980,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -989,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1000,10 +1436,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -1021,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1032,10 +1468,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -1047,16 +1483,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1064,10 +1500,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1079,29 +1515,433 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
